--- a/Excel/UnitConfig@cs.xlsx
+++ b/Excel/UnitConfig@cs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\UnityProject\ETGameLesson\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Project\ET-EUI-Study\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3B8E98-5975-4F39-9C98-552CA5C05EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B77F14B-430D-4CDF-A18A-CE4EB5396733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-150" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4272" yWindow="2568" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Knight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BaoYu</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -161,6 +157,22 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wizard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackBoar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monkey</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -547,18 +559,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="10" width="12" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
@@ -569,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="3:11" x14ac:dyDescent="0.3">
@@ -595,7 +607,7 @@
         <v>28</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="3:11" x14ac:dyDescent="0.3">
@@ -619,7 +631,7 @@
         <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
@@ -646,7 +658,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -669,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.3">
@@ -695,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
@@ -721,7 +733,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
@@ -747,7 +759,7 @@
         <v>30</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.3">
@@ -773,7 +785,7 @@
         <v>40</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.3">
@@ -799,7 +811,7 @@
         <v>50</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.3">
@@ -825,7 +837,7 @@
         <v>60</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
@@ -851,7 +863,7 @@
         <v>70</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" s="6"/>
     </row>
@@ -878,7 +890,7 @@
         <v>80</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.3">
@@ -904,7 +916,7 @@
         <v>90</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.3">
@@ -930,7 +942,7 @@
         <v>100</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
@@ -956,7 +968,7 @@
         <v>110</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
@@ -982,12 +994,12 @@
         <v>120</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>